--- a/CV/Publications.xlsx
+++ b/CV/Publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\work\jks_profile\public\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832F7630-F389-4750-A00B-69D2DA32B5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2E6B2F-4F0E-4DD4-8EB8-CBEDB25C4F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="626">
   <si>
     <t>Year</t>
   </si>
@@ -280,9 +280,6 @@
   <si>
     <t xml:space="preserve">S23-S39
 </t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3233/JAD-230603</t>
   </si>
   <si>
     <t>1387-2877</t>
@@ -496,39 +493,6 @@
     <t>https://doi.org/10.3233/JAD-231181</t>
   </si>
   <si>
-    <t>Immunotherapy in Alzheimer’s Disease: Current Status and Future Directions.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Vashisth K, Sharma S, Ghosh S, Babu MA, Ghosh S, Iqbal D, Kamal M, Almutary AG, Jha SK, Ojha S, Bhaskar R, Jha NK, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Sinha JK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>s23-s39</t>
-  </si>
-  <si>
     <t>Qeios</t>
   </si>
   <si>
@@ -2152,6 +2116,27 @@
   </si>
   <si>
     <t>https://www.mdpi.com/2072-6694/17/7/1082/pdf?version=1742805078</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/2072-6694/17/6/1008/pdf?version=1742215815</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/2313-7673/10/1/25/pdf?version=1736130939</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/doi/10.3233/JAD-230603?url_ver=Z39.88-2003&amp;rfr_id=ori:rid:crossref.org&amp;rfr_dat=cr_pub%20%200pubmed</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/doi/pdf/10.1177/09727531241275347?download=true</t>
+  </si>
+  <si>
+    <t>https://aber.apacsci.com/index.php/JBRHA/article/viewFile/8087/3955</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/aging-neuroscience/articles/10.3389/fnagi.2023.1351855/pdf</t>
+  </si>
+  <si>
+    <t>https://www.thelancet.com/action/showPdf?pii=S0140-6736%2823%2901693-8</t>
   </si>
 </sst>
 </file>
@@ -2402,7 +2387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2514,6 +2499,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2547,7 +2535,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>485775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="762000" cy="762000"/>
@@ -2581,7 +2569,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="619125"/>
@@ -3295,7 +3283,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>504825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="828675" cy="819150"/>
@@ -3329,7 +3317,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>809625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="695325" cy="714375"/>
@@ -3363,7 +3351,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>828675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="885825" cy="885825"/>
@@ -3397,7 +3385,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>933450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="762000" cy="762000"/>
@@ -3431,7 +3419,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>752475</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="619125"/>
@@ -3465,7 +3453,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>695325</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="581025" cy="590550"/>
@@ -3499,7 +3487,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="533400" cy="533400"/>
@@ -3533,7 +3521,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>790575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="619125"/>
@@ -3567,7 +3555,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>657225</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="714375" cy="714375"/>
@@ -3601,7 +3589,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>657225</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="800100" cy="771525"/>
@@ -3635,7 +3623,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>809625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="714375" cy="714375"/>
@@ -3669,7 +3657,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>733425</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="762000" cy="762000"/>
@@ -3703,7 +3691,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>885825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="800100" cy="819150"/>
@@ -3737,7 +3725,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>809625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="714375" cy="714375"/>
@@ -3771,7 +3759,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>809625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="590550"/>
@@ -3805,7 +3793,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>723900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="619125"/>
@@ -3839,7 +3827,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>809625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="590550"/>
@@ -3873,7 +3861,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>666750</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="619125"/>
@@ -3907,7 +3895,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>676275</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="695325" cy="666750"/>
@@ -3941,7 +3929,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>657225</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="885825" cy="885825"/>
@@ -3975,7 +3963,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>962025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="828675" cy="819150"/>
@@ -4009,7 +3997,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>809625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="828675" cy="819150"/>
@@ -4043,7 +4031,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>809625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="885825" cy="885825"/>
@@ -4077,7 +4065,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>657225</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="666750"/>
@@ -4111,7 +4099,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>657225</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="800100" cy="771525"/>
@@ -4145,7 +4133,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="885825" cy="885825"/>
@@ -4179,7 +4167,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>1152525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="800100" cy="819150"/>
@@ -4213,7 +4201,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>1076325</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="828675" cy="819150"/>
@@ -4247,7 +4235,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>800100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="828675" cy="819150"/>
@@ -4281,7 +4269,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>809625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="885825" cy="885825"/>
@@ -4315,7 +4303,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>923925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="885825" cy="885825"/>
@@ -4349,7 +4337,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>809625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="885825" cy="885825"/>
@@ -4383,7 +4371,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>962025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="942975" cy="942975"/>
@@ -4417,7 +4405,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>809625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1028700" cy="1028700"/>
@@ -4451,7 +4439,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>1076325</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="942975" cy="942975"/>
@@ -4485,7 +4473,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>962025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="800100" cy="819150"/>
@@ -4519,7 +4507,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>809625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="885825" cy="885825"/>
@@ -4553,7 +4541,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>933450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1028700" cy="1028700"/>
@@ -4587,7 +4575,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>1362075</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1028700" cy="1028700"/>
@@ -4621,7 +4609,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="942975" cy="942975"/>
@@ -4655,7 +4643,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>390525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1152525" cy="1152525"/>
@@ -4689,7 +4677,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1152525" cy="1152525"/>
@@ -4723,7 +4711,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>1114425</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="942975" cy="942975"/>
@@ -4757,7 +4745,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>962025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="762000" cy="771525"/>
@@ -4791,7 +4779,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="714375" cy="714375"/>
@@ -4825,7 +4813,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>628650</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="762000" cy="771525"/>
@@ -4859,7 +4847,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>790575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="714375" cy="714375"/>
@@ -5094,11 +5082,11 @@
     <tabColor rgb="FF00FF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB989"/>
+  <dimension ref="A1:AB988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5176,7 +5164,7 @@
       </c>
       <c r="T1" s="7"/>
       <c r="U1" s="5" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
@@ -5227,7 +5215,7 @@
         <v>24</v>
       </c>
       <c r="U2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="X2" s="11"/>
       <c r="Y2" s="11"/>
@@ -5404,7 +5392,7 @@
         <v>24</v>
       </c>
       <c r="U6" s="50" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -5448,6 +5436,9 @@
       </c>
       <c r="O7" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="U7" t="s">
+        <v>619</v>
       </c>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
@@ -5526,6 +5517,9 @@
       <c r="P9" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="U9" t="s">
+        <v>620</v>
+      </c>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
     </row>
@@ -5640,14 +5634,14 @@
       <c r="G12" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>74</v>
+      <c r="H12" s="51" t="s">
+        <v>621</v>
       </c>
       <c r="I12" s="1">
         <v>39422934</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" s="10">
         <v>3.1</v>
@@ -5666,27 +5660,27 @@
         <v>2024</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="I13" s="15">
         <v>39544655</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" s="10">
         <v>2.4</v>
@@ -5696,6 +5690,9 @@
       </c>
       <c r="Q13" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="U13" t="s">
+        <v>622</v>
       </c>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
@@ -5705,13 +5702,13 @@
         <v>2024</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="E14" s="1">
         <v>62</v>
@@ -5720,16 +5717,16 @@
         <v>6</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="I14" s="15">
         <v>39230868</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K14" s="10">
         <v>5.5</v>
@@ -5751,13 +5748,13 @@
         <v>2024</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="E15" s="1">
         <v>33</v>
@@ -5766,7 +5763,7 @@
         <v>72</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -5788,13 +5785,13 @@
         <v>2024</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="E16" s="2">
         <v>100</v>
@@ -5804,13 +5801,13 @@
         <v>102450</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I16" s="15">
         <v>39134179</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K16" s="10">
         <v>12.4</v>
@@ -5826,13 +5823,13 @@
         <v>2024</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="E17" s="1">
         <v>29</v>
@@ -5844,13 +5841,13 @@
         <v>104105</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I17" s="15">
         <v>39029869</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K17" s="10">
         <v>7.5</v>
@@ -5872,13 +5869,13 @@
         <v>2024</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E18" s="1">
         <v>100</v>
@@ -5888,13 +5885,13 @@
         <v>102411</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I18" s="15">
         <v>38986845</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K18" s="10">
         <v>12.4</v>
@@ -5916,30 +5913,30 @@
         <v>2024</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="D19" s="18" t="s">
         <v>106</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K19" s="16">
         <v>1.3</v>
       </c>
       <c r="L19" s="22"/>
       <c r="M19" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
@@ -5962,27 +5959,27 @@
         <v>2024</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>113</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
       <c r="H20" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K20" s="25"/>
       <c r="L20" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
@@ -5990,13 +5987,15 @@
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S20" s="22">
         <v>0.19</v>
       </c>
       <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
+      <c r="U20" s="16" t="s">
+        <v>623</v>
+      </c>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="11"/>
@@ -6010,13 +6009,13 @@
         <v>2024</v>
       </c>
       <c r="B21" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="D21" s="26" t="s">
         <v>117</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>118</v>
       </c>
       <c r="E21" s="27">
         <v>98</v>
@@ -6025,22 +6024,22 @@
         <v>4</v>
       </c>
       <c r="G21" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>119</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>120</v>
       </c>
       <c r="I21" s="29">
         <v>38607755</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K21" s="10">
         <v>3.1</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O21" s="30" t="s">
         <v>24</v>
@@ -6049,92 +6048,105 @@
       <c r="Y21" s="11"/>
     </row>
     <row r="22" spans="1:28" ht="39.6">
-      <c r="A22" s="8">
+      <c r="A22" s="17">
         <v>2024</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="26" t="s">
+      <c r="B22" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="27">
-        <v>101</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="27" t="s">
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="H22" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K22" s="10">
-        <v>3.1</v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="31"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
-    </row>
-    <row r="23" spans="1:28" ht="39.6">
-      <c r="A23" s="17">
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+    </row>
+    <row r="23" spans="1:28" ht="52.8">
+      <c r="A23" s="8">
         <v>2024</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="C23" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24" t="s">
+      <c r="D23" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17" t="s">
+      <c r="E23" s="27">
+        <v>96</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27">
+        <v>102211</v>
+      </c>
+      <c r="H23" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
+      <c r="I23" s="32">
+        <v>38307424</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K23" s="10">
+        <v>12.4</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
     </row>
     <row r="24" spans="1:28" ht="52.8">
-      <c r="A24" s="8">
+      <c r="A24" s="30">
         <v>2024</v>
       </c>
       <c r="B24" s="26" t="s">
@@ -6147,193 +6159,174 @@
         <v>131</v>
       </c>
       <c r="E24" s="27">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="27">
-        <v>102211</v>
+        <v>1351855</v>
       </c>
       <c r="H24" s="28" t="s">
         <v>132</v>
       </c>
       <c r="I24" s="32">
-        <v>38307424</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K24" s="10">
-        <v>12.4</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8" t="s">
+        <v>38249716</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30" t="s">
+        <v>624</v>
+      </c>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
     </row>
     <row r="25" spans="1:28" ht="52.8">
-      <c r="A25" s="30">
-        <v>2024</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="26" t="s">
+      <c r="A25" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="27">
-        <v>15</v>
-      </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27">
-        <v>1351855</v>
-      </c>
-      <c r="H25" s="28" t="s">
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="I25" s="32">
-        <v>38249716</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="K25" s="33">
-        <v>4.5</v>
-      </c>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
+      <c r="I25" s="35">
+        <v>38229812</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-    </row>
-    <row r="26" spans="1:28" ht="52.8">
-      <c r="A26" s="16">
-        <v>2023</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="21" t="s">
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+    </row>
+    <row r="26" spans="1:28" ht="66">
+      <c r="A26" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="34" t="s">
+      <c r="E26" s="1">
+        <v>254</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>127708</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="I26" s="35">
-        <v>38229812</v>
-      </c>
-      <c r="J26" s="16" t="s">
+      <c r="I26" s="36">
+        <v>37923043</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K26" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K26" s="16">
-        <v>1.3</v>
-      </c>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
+      <c r="O26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V26" s="1"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-    </row>
-    <row r="27" spans="1:28" ht="66">
+    </row>
+    <row r="27" spans="1:28" ht="65.25" customHeight="1">
       <c r="A27" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E27" s="1">
-        <v>254</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
-        <v>127708</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
       <c r="H27" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="I27" s="36">
-        <v>37923043</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K27" s="10">
-        <v>8.5</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="K27" s="37"/>
       <c r="M27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="O27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="V27" s="1"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
     </row>
-    <row r="28" spans="1:28" ht="65.25" customHeight="1">
+    <row r="28" spans="1:28" ht="73.5" customHeight="1">
       <c r="A28" s="2">
         <v>2023</v>
       </c>
@@ -6346,148 +6339,162 @@
       <c r="D28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="E28" s="1">
+        <v>402</v>
+      </c>
+      <c r="F28" s="1">
+        <v>10412</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="H28" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="I28" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="I28" s="36">
+        <v>37898526</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K28" s="37"/>
-      <c r="M28" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="R28" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K28" s="10">
+        <v>88.5</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="U28" t="s">
+        <v>625</v>
       </c>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
     </row>
-    <row r="29" spans="1:28" ht="73.5" customHeight="1">
+    <row r="29" spans="1:28" ht="59.25" customHeight="1">
       <c r="A29" s="2">
         <v>2023</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E29" s="1">
-        <v>402</v>
+        <v>13</v>
       </c>
       <c r="F29" s="1">
-        <v>10412</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>153</v>
+        <v>9</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1305</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I29" s="36">
-        <v>37898526</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>155</v>
+        <v>37759906</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="K29" s="10">
-        <v>88.5</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="O29" s="2" t="s">
+        <v>2.8</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
     </row>
-    <row r="30" spans="1:28" ht="59.25" customHeight="1">
-      <c r="A30" s="2">
+    <row r="30" spans="1:28" ht="54.75" customHeight="1">
+      <c r="A30" s="38">
         <v>2023</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E30" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F30" s="1">
         <v>9</v>
       </c>
-      <c r="G30" s="1">
-        <v>1305</v>
+      <c r="G30" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I30" s="36">
-        <v>37759906</v>
+        <v>37659428</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K30" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="P30" s="2" t="s">
+        <v>14.6</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>24</v>
       </c>
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
     </row>
-    <row r="31" spans="1:28" ht="54.75" customHeight="1">
-      <c r="A31" s="38">
+    <row r="31" spans="1:28" ht="52.8">
+      <c r="A31" s="2">
         <v>2023</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E31" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F31" s="1">
-        <v>9</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>164</v>
+        <v>14</v>
+      </c>
+      <c r="G31" s="1">
+        <v>10821</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I31" s="36">
-        <v>37659428</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="I31" s="1"/>
       <c r="J31" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K31" s="10">
-        <v>14.6</v>
+        <v>3.3</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>24</v>
@@ -6495,12 +6502,12 @@
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
     </row>
-    <row r="32" spans="1:28" ht="52.8">
+    <row r="32" spans="1:28" ht="62.25" customHeight="1">
       <c r="A32" s="2">
         <v>2023</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>168</v>
@@ -6508,30 +6515,29 @@
       <c r="D32" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E32" s="1">
-        <v>15</v>
-      </c>
-      <c r="F32" s="1">
-        <v>14</v>
-      </c>
-      <c r="G32" s="1">
-        <v>10821</v>
+      <c r="E32" s="2">
+        <v>401</v>
+      </c>
+      <c r="F32" s="2">
+        <v>10394</v>
+      </c>
+      <c r="G32" s="39">
+        <v>76611</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="I32" s="1"/>
+      <c r="I32" s="36">
+        <v>37355284</v>
+      </c>
       <c r="J32" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="K32" s="10">
-        <v>3.3</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>110</v>
+        <v>88.5</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>24</v>
@@ -6539,12 +6545,12 @@
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
     </row>
-    <row r="33" spans="1:28" ht="62.25" customHeight="1">
-      <c r="A33" s="2">
+    <row r="33" spans="1:28" ht="51.75" customHeight="1">
+      <c r="A33" s="38">
         <v>2023</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>172</v>
@@ -6552,341 +6558,333 @@
       <c r="D33" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="2">
-        <v>401</v>
-      </c>
-      <c r="F33" s="2">
-        <v>10394</v>
-      </c>
-      <c r="G33" s="39">
-        <v>76611</v>
+      <c r="E33" s="1">
+        <v>21</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1">
+        <v>211</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>174</v>
       </c>
       <c r="I33" s="36">
-        <v>37355284</v>
+        <v>37103352</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="K33" s="10">
-        <v>88.5</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>24</v>
+        <v>5.4</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
     </row>
-    <row r="34" spans="1:28" ht="51.75" customHeight="1">
-      <c r="A34" s="38">
+    <row r="34" spans="1:28" ht="66">
+      <c r="A34" s="2">
         <v>2023</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E34" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F34" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34" s="1">
-        <v>211</v>
+        <v>814</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I34" s="36">
-        <v>37103352</v>
+        <v>36986674</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K34" s="10">
-        <v>5.4</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>110</v>
+        <v>5.5</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
     </row>
-    <row r="35" spans="1:28" ht="66">
-      <c r="A35" s="2">
+    <row r="35" spans="1:28" ht="79.2">
+      <c r="A35" s="16">
         <v>2023</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="C35" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="1">
-        <v>15</v>
-      </c>
-      <c r="F35" s="1">
-        <v>3</v>
-      </c>
-      <c r="G35" s="1">
-        <v>814</v>
-      </c>
-      <c r="H35" s="7" t="s">
+      <c r="D35" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="I35" s="36">
-        <v>36986674</v>
-      </c>
-      <c r="J35" s="2" t="s">
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="K35" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="O35" s="2" t="s">
+      <c r="I35" s="35">
+        <v>37786516</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16" t="s">
         <v>24</v>
       </c>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
-    </row>
-    <row r="36" spans="1:28" ht="79.2">
-      <c r="A36" s="16">
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+    </row>
+    <row r="36" spans="1:28" ht="57.75" customHeight="1">
+      <c r="A36" s="2">
         <v>2023</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="C36" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="34" t="s">
+      <c r="D36" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I36" s="35">
-        <v>37786516</v>
-      </c>
-      <c r="J36" s="16" t="s">
+      <c r="E36" s="1">
+        <v>23</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>114</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16" t="s">
+      <c r="I36" s="36">
+        <v>36919361</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K36" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="16"/>
-    </row>
-    <row r="37" spans="1:28" ht="57.75" customHeight="1">
+    </row>
+    <row r="37" spans="1:28" ht="69.75" customHeight="1">
       <c r="A37" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E37" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G37" s="1">
-        <v>114</v>
+        <v>1673</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I37" s="36">
-        <v>36919361</v>
+        <v>36295107</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K37" s="10">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="P37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O37" s="2" t="s">
         <v>24</v>
       </c>
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
     </row>
-    <row r="38" spans="1:28" ht="69.75" customHeight="1">
-      <c r="A38" s="2">
+    <row r="38" spans="1:28" ht="79.2">
+      <c r="A38" s="16">
         <v>2022</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="C38" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="E38" s="1">
-        <v>12</v>
-      </c>
-      <c r="F38" s="1">
-        <v>10</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1673</v>
-      </c>
-      <c r="H38" s="7" t="s">
+      <c r="D38" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="I38" s="36">
-        <v>36295107</v>
-      </c>
-      <c r="J38" s="2" t="s">
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="K38" s="10">
-        <v>3.4</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="O38" s="2" t="s">
+      <c r="I38" s="21"/>
+      <c r="J38" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="K38" s="25"/>
+      <c r="L38" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16" t="s">
         <v>24</v>
       </c>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
-    </row>
-    <row r="39" spans="1:28" ht="79.2">
-      <c r="A39" s="16">
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+    </row>
+    <row r="39" spans="1:28" ht="66">
+      <c r="A39" s="2">
         <v>2022</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="C39" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="34" t="s">
+      <c r="D39" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I39" s="21"/>
-      <c r="J39" s="16" t="s">
+      <c r="E39" s="1">
+        <v>32</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K39" s="25"/>
-      <c r="L39" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="M39" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16" t="s">
+      <c r="H39" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K39" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
-      <c r="Z39" s="16"/>
-      <c r="AA39" s="16"/>
-      <c r="AB39" s="16"/>
-    </row>
-    <row r="40" spans="1:28" ht="66">
+    </row>
+    <row r="40" spans="1:28" ht="57" customHeight="1">
       <c r="A40" s="2">
         <v>2022</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E40" s="1">
-        <v>32</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
-        <v>208</v>
-      </c>
+      <c r="G40" s="1"/>
       <c r="H40" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="I40" s="1"/>
+      <c r="I40" s="36">
+        <v>35669384</v>
+      </c>
       <c r="J40" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="K40" s="10">
-        <v>5.8</v>
+      <c r="K40" s="10"/>
+      <c r="L40" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
     </row>
-    <row r="41" spans="1:28" ht="57" customHeight="1">
+    <row r="41" spans="1:28" ht="79.2">
       <c r="A41" s="2">
         <v>2022</v>
       </c>
@@ -6897,66 +6895,74 @@
         <v>212</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="E41" s="2">
+        <v>101</v>
+      </c>
+      <c r="F41" s="1">
+        <v>6</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="H41" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I41" s="36">
-        <v>35669384</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="2" t="s">
-        <v>110</v>
+        <v>35034059</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K41" s="40">
+        <v>2.4</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="X41" s="11"/>
       <c r="Y41" s="11"/>
     </row>
-    <row r="42" spans="1:28" ht="79.2">
+    <row r="42" spans="1:28" ht="52.5" customHeight="1">
       <c r="A42" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E42" s="2">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="F42" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I42" s="36">
-        <v>35034059</v>
+        <v>33923061</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K42" s="40">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>24</v>
@@ -6964,85 +6970,83 @@
       <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
     </row>
-    <row r="43" spans="1:28" ht="52.5" customHeight="1">
+    <row r="43" spans="1:28" ht="53.25" customHeight="1">
       <c r="A43" s="2">
         <v>2021</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E43" s="2">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F43" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I43" s="36">
-        <v>33923061</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="K43" s="40">
-        <v>3.9</v>
+        <v>33676390</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K43" s="10">
+        <v>3.3</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="O43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="X43" s="11"/>
       <c r="Y43" s="11"/>
     </row>
-    <row r="44" spans="1:28" ht="53.25" customHeight="1">
+    <row r="44" spans="1:28" ht="52.8">
       <c r="A44" s="2">
         <v>2021</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E44" s="2">
-        <v>21</v>
-      </c>
-      <c r="F44" s="1">
-        <v>10</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>229</v>
+        <v>115</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1">
+        <v>107653</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="I44" s="36">
-        <v>33676390</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="K44" s="10">
-        <v>3.3</v>
+      <c r="I44" s="13">
+        <v>33358679</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K44" s="40">
+        <v>2.2999999999999998</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>24</v>
@@ -7050,80 +7054,82 @@
       <c r="X44" s="11"/>
       <c r="Y44" s="11"/>
     </row>
-    <row r="45" spans="1:28" ht="52.8">
+    <row r="45" spans="1:28" ht="79.2">
       <c r="A45" s="2">
         <v>2021</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E45" s="2">
-        <v>115</v>
-      </c>
-      <c r="F45" s="1"/>
+        <v>234</v>
+      </c>
+      <c r="E45" s="1">
+        <v>267</v>
+      </c>
       <c r="G45" s="1">
-        <v>107653</v>
+        <v>113509</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="I45" s="13">
-        <v>33358679</v>
-      </c>
-      <c r="J45" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="I45" s="36">
+        <v>33141053</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="K45" s="40">
-        <v>2.2999999999999998</v>
+        <v>5.4</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="P45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O45" s="2" t="s">
         <v>24</v>
       </c>
       <c r="X45" s="11"/>
       <c r="Y45" s="11"/>
     </row>
-    <row r="46" spans="1:28" ht="79.2">
+    <row r="46" spans="1:28" ht="92.4">
       <c r="A46" s="2">
         <v>2021</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E46" s="1">
-        <v>267</v>
-      </c>
-      <c r="G46" s="1">
-        <v>113509</v>
+        <v>19</v>
+      </c>
+      <c r="F46" s="1">
+        <v>7</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I46" s="36">
-        <v>33141053</v>
+        <v>32727328</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="K46" s="40">
-        <v>5.4</v>
+        <v>242</v>
+      </c>
+      <c r="K46" s="41">
+        <v>5.3</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>24</v>
@@ -7131,42 +7137,42 @@
       <c r="X46" s="11"/>
       <c r="Y46" s="11"/>
     </row>
-    <row r="47" spans="1:28" ht="92.4">
+    <row r="47" spans="1:28" ht="66">
       <c r="A47" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E47" s="1">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F47" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I47" s="36">
-        <v>32727328</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>246</v>
+        <v>33040678</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="K47" s="41">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>24</v>
@@ -7174,42 +7180,42 @@
       <c r="X47" s="11"/>
       <c r="Y47" s="11"/>
     </row>
-    <row r="48" spans="1:28" ht="66">
+    <row r="48" spans="1:28" ht="79.2">
       <c r="A48" s="2">
         <v>2020</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E48" s="1">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F48" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I48" s="36">
-        <v>33040678</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
+      </c>
+      <c r="I48" s="4">
+        <v>30474509</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="K48" s="41">
-        <v>3.7</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>110</v>
+        <v>3.6</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>24</v>
@@ -7217,127 +7223,127 @@
       <c r="X48" s="11"/>
       <c r="Y48" s="11"/>
     </row>
-    <row r="49" spans="1:28" ht="79.2">
-      <c r="A49" s="2">
+    <row r="49" spans="1:28" ht="52.8">
+      <c r="A49" s="16">
         <v>2020</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="B49" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="E49" s="1">
-        <v>23</v>
-      </c>
-      <c r="F49" s="1">
-        <v>9</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="C49" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="D49" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="I49" s="4">
-        <v>30474509</v>
-      </c>
-      <c r="J49" s="2" t="s">
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="K49" s="41">
-        <v>3.6</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
       <c r="X49" s="11"/>
       <c r="Y49" s="11"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
     </row>
     <row r="50" spans="1:28" ht="52.8">
-      <c r="A50" s="16">
+      <c r="A50" s="2">
         <v>2020</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="D50" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="E50" s="2">
+        <v>18</v>
+      </c>
+      <c r="F50" s="2">
+        <v>9</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="34" t="s">
+      <c r="H50" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="16"/>
+      <c r="I50" s="36">
+        <v>32348223</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K50" s="41">
+        <v>5.3</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="X50" s="11"/>
       <c r="Y50" s="11"/>
-      <c r="Z50" s="16"/>
-      <c r="AA50" s="16"/>
-      <c r="AB50" s="16"/>
-    </row>
-    <row r="51" spans="1:28" ht="52.8">
+    </row>
+    <row r="51" spans="1:28" ht="56.25" customHeight="1">
       <c r="A51" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E51" s="2">
-        <v>18</v>
-      </c>
-      <c r="F51" s="2">
-        <v>9</v>
-      </c>
-      <c r="G51" s="2" t="s">
         <v>265</v>
       </c>
+      <c r="E51" s="1">
+        <v>7</v>
+      </c>
+      <c r="F51" s="1">
+        <v>10</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="H51" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I51" s="36">
-        <v>32348223</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>246</v>
+        <v>31535615</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="K51" s="41">
-        <v>5.3</v>
+        <v>41.8</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>24</v>
@@ -7345,42 +7351,42 @@
       <c r="X51" s="11"/>
       <c r="Y51" s="11"/>
     </row>
-    <row r="52" spans="1:28" ht="56.25" customHeight="1">
+    <row r="52" spans="1:28" ht="90.75" customHeight="1">
       <c r="A52" s="2">
         <v>2019</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>267</v>
+        <v>146</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E52" s="1">
-        <v>7</v>
+        <v>270</v>
+      </c>
+      <c r="E52" s="2">
+        <v>394</v>
       </c>
       <c r="F52" s="1">
-        <v>10</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>270</v>
+        <v>10202</v>
+      </c>
+      <c r="G52" s="1">
+        <v>914</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>271</v>
       </c>
       <c r="I52" s="36">
-        <v>31535615</v>
+        <v>31526729</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="K52" s="41">
-        <v>41.8</v>
+        <v>151</v>
+      </c>
+      <c r="K52" s="43">
+        <v>88.5</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>24</v>
@@ -7388,12 +7394,12 @@
       <c r="X52" s="11"/>
       <c r="Y52" s="11"/>
     </row>
-    <row r="53" spans="1:28" ht="90.75" customHeight="1">
+    <row r="53" spans="1:28" ht="84.75" customHeight="1">
       <c r="A53" s="2">
         <v>2019</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>272</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>273</v>
@@ -7401,159 +7407,159 @@
       <c r="D53" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E53" s="2">
-        <v>394</v>
+      <c r="E53" s="1">
+        <v>149</v>
       </c>
       <c r="F53" s="1">
-        <v>10202</v>
-      </c>
-      <c r="G53" s="1">
-        <v>914</v>
+        <v>5</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I53" s="36">
-        <v>31526729</v>
+        <v>31417028</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="K53" s="43">
-        <v>88.5</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="O53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P53" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="T53" s="1"/>
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
     </row>
-    <row r="54" spans="1:28" ht="84.75" customHeight="1">
+    <row r="54" spans="1:28" ht="63" customHeight="1">
       <c r="A54" s="2">
         <v>2019</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E54" s="1">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="F54" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I54" s="36">
-        <v>31417028</v>
+        <v>30989503</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>30</v>
+        <v>282</v>
       </c>
       <c r="K54" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>110</v>
+        <v>2.1</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T54" s="1"/>
       <c r="X54" s="11"/>
       <c r="Y54" s="11"/>
     </row>
-    <row r="55" spans="1:28" ht="63" customHeight="1">
+    <row r="55" spans="1:28" ht="79.2">
       <c r="A55" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E55" s="1">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="F55" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I55" s="36">
-        <v>30989503</v>
+        <v>28186655</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K55" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="P55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O55" s="2" t="s">
         <v>24</v>
       </c>
       <c r="X55" s="11"/>
       <c r="Y55" s="11"/>
     </row>
-    <row r="56" spans="1:28" ht="79.2">
+    <row r="56" spans="1:28" ht="72.75" customHeight="1">
       <c r="A56" s="2">
         <v>2017</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E56" s="1">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="F56" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I56" s="36">
-        <v>28186655</v>
+        <v>28632905</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K56" s="10">
-        <v>5</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>110</v>
+        <v>4</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>24</v>
@@ -7561,42 +7567,42 @@
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
     </row>
-    <row r="57" spans="1:28" ht="72.75" customHeight="1">
+    <row r="57" spans="1:28" ht="66">
       <c r="A57" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E57" s="1">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="F57" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>299</v>
       </c>
       <c r="I57" s="36">
-        <v>28632905</v>
+        <v>27364681</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K57" s="10">
-        <v>4</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>110</v>
+        <v>3.2</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>24</v>
@@ -7604,42 +7610,40 @@
       <c r="X57" s="11"/>
       <c r="Y57" s="11"/>
     </row>
-    <row r="58" spans="1:28" ht="66">
+    <row r="58" spans="1:28" ht="79.2">
       <c r="A58" s="2">
         <v>2016</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E58" s="1">
-        <v>68</v>
-      </c>
-      <c r="F58" s="1">
-        <v>9</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>303</v>
+        <v>3</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="I58" s="36">
-        <v>27364681</v>
+        <v>26835453</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K58" s="10">
-        <v>3.2</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>110</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>24</v>
@@ -7652,48 +7656,48 @@
         <v>2016</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E59" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I59" s="36">
-        <v>26835453</v>
+        <v>26834554</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K59" s="10">
-        <v>5.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="O59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P59" s="2" t="s">
         <v>24</v>
       </c>
       <c r="X59" s="11"/>
       <c r="Y59" s="11"/>
     </row>
-    <row r="60" spans="1:28" ht="79.2">
+    <row r="60" spans="1:28" ht="84.75" customHeight="1">
       <c r="A60" s="2">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>311</v>
@@ -7702,26 +7706,26 @@
         <v>312</v>
       </c>
       <c r="E60" s="1">
-        <v>8</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1">
-        <v>86</v>
-      </c>
-      <c r="H60" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="1">
+        <v>5</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>313</v>
       </c>
+      <c r="H60" s="1"/>
       <c r="I60" s="36">
-        <v>26834554</v>
+        <v>25027075</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>314</v>
+        <v>30</v>
       </c>
       <c r="K60" s="10">
-        <v>3.8</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>110</v>
+        <v>2.5</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>24</v>
@@ -7729,12 +7733,12 @@
       <c r="X60" s="11"/>
       <c r="Y60" s="11"/>
     </row>
-    <row r="61" spans="1:28" ht="84.75" customHeight="1">
+    <row r="61" spans="1:28" ht="79.2">
       <c r="A61" s="2">
         <v>2014</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>315</v>
@@ -7743,26 +7747,26 @@
         <v>316</v>
       </c>
       <c r="E61" s="1">
-        <v>139</v>
-      </c>
-      <c r="F61" s="1">
-        <v>5</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="H61" s="1"/>
-      <c r="I61" s="36">
-        <v>25027075</v>
+      <c r="H61" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="I61" s="3">
+        <v>24709042</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>30</v>
+        <v>319</v>
       </c>
       <c r="K61" s="10">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>24</v>
@@ -7770,48 +7774,37 @@
       <c r="X61" s="11"/>
       <c r="Y61" s="11"/>
     </row>
-    <row r="62" spans="1:28" ht="79.2">
+    <row r="62" spans="1:28" ht="66">
       <c r="A62" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E62" s="1">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="F62" s="1"/>
-      <c r="G62" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="I62" s="3">
-        <v>24709042</v>
+      <c r="H62" s="1"/>
+      <c r="I62" s="36">
+        <v>23305026</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>323</v>
       </c>
       <c r="K62" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>24</v>
+        <v>0.5</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="X62" s="11"/>
       <c r="Y62" s="11"/>
     </row>
-    <row r="63" spans="1:28" ht="66">
+    <row r="63" spans="1:28" ht="92.4">
       <c r="A63" s="2">
         <v>2012</v>
       </c>
@@ -7824,29 +7817,45 @@
       <c r="D63" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="E63" s="1">
+        <v>34</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="44">
+        <v>45907</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>327</v>
+      </c>
       <c r="I63" s="36">
-        <v>23305026</v>
+        <v>22170471</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K63" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>110</v>
+        <v>2.7</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="X63" s="11"/>
       <c r="Y63" s="11"/>
     </row>
-    <row r="64" spans="1:28" ht="92.4">
+    <row r="64" spans="1:28" ht="112.5" customHeight="1">
       <c r="A64" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>328</v>
+        <v>272</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>329</v>
@@ -7855,61 +7864,54 @@
         <v>330</v>
       </c>
       <c r="E64" s="1">
-        <v>34</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
-      <c r="G64" s="44">
-        <v>45907</v>
-      </c>
-      <c r="H64" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1" t="s">
         <v>331</v>
       </c>
+      <c r="H64" s="1"/>
       <c r="I64" s="36">
-        <v>22170471</v>
+        <v>21245625</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="K64" s="10">
-        <v>2.7</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="O64" s="2" t="s">
+        <v>2.5</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P64" s="2" t="s">
         <v>24</v>
       </c>
       <c r="X64" s="11"/>
       <c r="Y64" s="11"/>
     </row>
-    <row r="65" spans="1:28" ht="112.5" customHeight="1">
+    <row r="65" spans="1:28" ht="81" customHeight="1">
       <c r="A65" s="2">
         <v>2010</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="E65" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="36">
-        <v>21245625</v>
+        <v>20424313</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>30</v>
@@ -7917,8 +7919,11 @@
       <c r="K65" s="10">
         <v>2.5</v>
       </c>
-      <c r="N65" s="2" t="s">
-        <v>110</v>
+      <c r="L65" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>24</v>
@@ -7926,49 +7931,21 @@
       <c r="X65" s="11"/>
       <c r="Y65" s="11"/>
     </row>
-    <row r="66" spans="1:28" ht="81" customHeight="1">
-      <c r="A66" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E66" s="1">
-        <v>131</v>
-      </c>
+    <row r="66" spans="1:28" ht="15.6">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
-        <v>338</v>
-      </c>
+      <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="36">
-        <v>20424313</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K66" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
       <c r="X66" s="11"/>
-      <c r="Y66" s="11"/>
-    </row>
-    <row r="67" spans="1:28" ht="15.6">
+      <c r="Y66" s="45"/>
+      <c r="Z66" s="2"/>
+    </row>
+    <row r="67" spans="1:28" ht="13.2">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -7979,10 +7956,9 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="X67" s="11"/>
-      <c r="Y67" s="45"/>
-      <c r="Z67" s="2"/>
     </row>
     <row r="68" spans="1:28" ht="13.2">
+      <c r="A68" s="37"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -7992,49 +7968,74 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="2"/>
       <c r="X68" s="11"/>
     </row>
-    <row r="69" spans="1:28" ht="13.2">
-      <c r="A69" s="37"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+    <row r="69" spans="1:28" ht="52.8">
+      <c r="A69" s="8">
+        <v>2024</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E69" s="1">
+        <v>20</v>
+      </c>
       <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
+      <c r="G69" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>339</v>
+      </c>
       <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="2"/>
-      <c r="X69" s="11"/>
-    </row>
-    <row r="70" spans="1:28" ht="52.8">
+      <c r="J69" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K69" s="10">
+        <v>11.1</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X69" s="46"/>
+    </row>
+    <row r="70" spans="1:28" ht="66">
       <c r="A70" s="8">
         <v>2024</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E70" s="1">
         <v>20</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I70" s="1"/>
-      <c r="J70" s="1" t="s">
-        <v>344</v>
+      <c r="J70" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="K70" s="10">
         <v>11.1</v>
@@ -8045,39 +8046,39 @@
       <c r="O70" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="X70" s="46"/>
-    </row>
-    <row r="71" spans="1:28" ht="66">
+      <c r="X70" s="47"/>
+    </row>
+    <row r="71" spans="1:28" ht="52.8">
       <c r="A71" s="8">
         <v>2024</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E71" s="1">
         <v>20</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I71" s="1"/>
-      <c r="J71" s="9" t="s">
-        <v>349</v>
+      <c r="J71" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="K71" s="10">
         <v>11.1</v>
       </c>
-      <c r="M71" s="2" t="s">
+      <c r="L71" s="2" t="s">
         <v>24</v>
       </c>
       <c r="O71" s="2" t="s">
@@ -8085,37 +8086,37 @@
       </c>
       <c r="X71" s="47"/>
     </row>
-    <row r="72" spans="1:28" ht="52.8">
+    <row r="72" spans="1:28" ht="26.4">
       <c r="A72" s="8">
         <v>2024</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C72" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>350</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="2">
         <v>20</v>
       </c>
-      <c r="F72" s="1"/>
+      <c r="F72" s="2"/>
       <c r="G72" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H72" s="3" t="s">
         <v>353</v>
       </c>
       <c r="I72" s="1"/>
-      <c r="J72" s="1" t="s">
-        <v>344</v>
+      <c r="J72" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="K72" s="10">
         <v>11.1</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="M72" s="2" t="s">
         <v>24</v>
       </c>
       <c r="O72" s="2" t="s">
@@ -8123,47 +8124,49 @@
       </c>
       <c r="X72" s="47"/>
     </row>
-    <row r="73" spans="1:28" ht="26.4">
-      <c r="A73" s="8">
-        <v>2024</v>
+    <row r="73" spans="1:28" ht="92.4">
+      <c r="A73" s="37">
+        <v>2023</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C73" s="2" t="s">
         <v>354</v>
       </c>
+      <c r="C73" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="D73" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E73" s="2">
-        <v>20</v>
-      </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="E73" s="1">
+        <v>19</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H73" s="7" t="s">
         <v>357</v>
       </c>
       <c r="I73" s="1"/>
-      <c r="J73" s="9" t="s">
-        <v>349</v>
+      <c r="J73" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="K73" s="10">
         <v>11.1</v>
       </c>
-      <c r="M73" s="2" t="s">
-        <v>24</v>
+      <c r="L73" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>24</v>
       </c>
       <c r="X73" s="47"/>
     </row>
-    <row r="74" spans="1:28" ht="92.4">
+    <row r="74" spans="1:28" ht="79.2">
       <c r="A74" s="37">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>358</v>
@@ -8172,36 +8175,34 @@
         <v>359</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E74" s="1">
+        <v>429</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1">
+        <v>118615</v>
+      </c>
+      <c r="H74" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="E74" s="1">
-        <v>19</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="K74" s="10">
-        <v>11.1</v>
+        <v>3.2</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>24</v>
       </c>
       <c r="X74" s="47"/>
     </row>
-    <row r="75" spans="1:28" ht="79.2">
+    <row r="75" spans="1:28" ht="52.8">
       <c r="A75" s="37">
         <v>2021</v>
       </c>
@@ -8211,28 +8212,30 @@
       <c r="C75" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>316</v>
+      <c r="D75" s="48" t="s">
+        <v>364</v>
       </c>
       <c r="E75" s="1">
-        <v>429</v>
-      </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1">
-        <v>118615</v>
+        <v>132</v>
+      </c>
+      <c r="F75" s="1">
+        <v>8</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K75" s="10">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>24</v>
@@ -8244,115 +8247,115 @@
         <v>2021</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D76" s="48" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="E76" s="1">
-        <v>132</v>
-      </c>
-      <c r="F76" s="1">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="K76" s="10">
-        <v>3.6</v>
+        <v>11.1</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>24</v>
       </c>
       <c r="X76" s="47"/>
     </row>
-    <row r="77" spans="1:28" ht="52.8">
+    <row r="77" spans="1:28" ht="79.2">
       <c r="A77" s="37">
         <v>2021</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>373</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>316</v>
+        <v>374</v>
       </c>
       <c r="E77" s="1">
-        <v>17</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>374</v>
+        <v>132</v>
+      </c>
+      <c r="F77" s="1">
+        <v>8</v>
       </c>
       <c r="G77" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H77" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="K77" s="10">
-        <v>11.1</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>110</v>
+        <v>3.6</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>24</v>
       </c>
       <c r="X77" s="47"/>
     </row>
-    <row r="78" spans="1:28" ht="79.2">
+    <row r="78" spans="1:28" ht="66">
       <c r="A78" s="37">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E78" s="1">
+        <v>16</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="E78" s="1">
-        <v>132</v>
-      </c>
-      <c r="F78" s="1">
-        <v>8</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>379</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="K78" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>110</v>
+        <v>11.1</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>24</v>
@@ -8360,73 +8363,73 @@
       <c r="X78" s="47"/>
     </row>
     <row r="79" spans="1:28" ht="66">
-      <c r="A79" s="37">
-        <v>2020</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="A79" s="25">
+        <v>2012</v>
+      </c>
+      <c r="B79" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E79" s="1">
-        <v>16</v>
-      </c>
-      <c r="F79" s="1" t="s">
+      <c r="C79" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="D79" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="K79" s="10">
-        <v>11.1</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="I79" s="21"/>
+      <c r="J79" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="K79" s="16">
+        <v>1.6</v>
+      </c>
+      <c r="L79" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="16"/>
+      <c r="S79" s="16"/>
+      <c r="T79" s="16"/>
+      <c r="U79" s="16"/>
+      <c r="V79" s="16"/>
+      <c r="W79" s="16"/>
       <c r="X79" s="47"/>
-    </row>
-    <row r="80" spans="1:28" ht="66">
-      <c r="A80" s="25">
-        <v>2012</v>
+      <c r="Y79" s="16"/>
+      <c r="Z79" s="16"/>
+      <c r="AA79" s="16"/>
+      <c r="AB79" s="16"/>
+    </row>
+    <row r="80" spans="1:28" ht="39.6">
+      <c r="A80" s="16">
+        <v>2006</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E80" s="21"/>
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
-      <c r="H80" s="34" t="s">
-        <v>387</v>
-      </c>
+      <c r="H80" s="21"/>
       <c r="I80" s="21"/>
-      <c r="J80" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="K80" s="16">
-        <v>1.6</v>
-      </c>
+      <c r="J80" s="21"/>
+      <c r="K80" s="16"/>
       <c r="L80" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
@@ -8445,47 +8448,19 @@
       <c r="AA80" s="16"/>
       <c r="AB80" s="16"/>
     </row>
-    <row r="81" spans="1:28" ht="39.6">
-      <c r="A81" s="16">
-        <v>2006</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="16"/>
-      <c r="S81" s="16"/>
-      <c r="T81" s="16"/>
-      <c r="U81" s="16"/>
-      <c r="V81" s="16"/>
-      <c r="W81" s="16"/>
+    <row r="81" spans="2:24" ht="13.2">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
       <c r="X81" s="47"/>
-      <c r="Y81" s="16"/>
-      <c r="Z81" s="16"/>
-      <c r="AA81" s="16"/>
-      <c r="AB81" s="16"/>
-    </row>
-    <row r="82" spans="1:28" ht="13.2">
+    </row>
+    <row r="82" spans="2:24" ht="13.2">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -8497,7 +8472,7 @@
       <c r="J82" s="1"/>
       <c r="X82" s="47"/>
     </row>
-    <row r="83" spans="1:28" ht="13.2">
+    <row r="83" spans="2:24" ht="13.2">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -8509,7 +8484,7 @@
       <c r="J83" s="1"/>
       <c r="X83" s="47"/>
     </row>
-    <row r="84" spans="1:28" ht="13.2">
+    <row r="84" spans="2:24" ht="13.2">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -8521,7 +8496,7 @@
       <c r="J84" s="1"/>
       <c r="X84" s="47"/>
     </row>
-    <row r="85" spans="1:28" ht="13.2">
+    <row r="85" spans="2:24" ht="13.2">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -8533,7 +8508,7 @@
       <c r="J85" s="1"/>
       <c r="X85" s="47"/>
     </row>
-    <row r="86" spans="1:28" ht="13.2">
+    <row r="86" spans="2:24" ht="13.2">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -8545,7 +8520,7 @@
       <c r="J86" s="1"/>
       <c r="X86" s="47"/>
     </row>
-    <row r="87" spans="1:28" ht="13.2">
+    <row r="87" spans="2:24" ht="13.2">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -8557,7 +8532,7 @@
       <c r="J87" s="1"/>
       <c r="X87" s="47"/>
     </row>
-    <row r="88" spans="1:28" ht="13.2">
+    <row r="88" spans="2:24" ht="13.2">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -8569,7 +8544,7 @@
       <c r="J88" s="1"/>
       <c r="X88" s="47"/>
     </row>
-    <row r="89" spans="1:28" ht="13.2">
+    <row r="89" spans="2:24" ht="13.2">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -8581,7 +8556,7 @@
       <c r="J89" s="1"/>
       <c r="X89" s="47"/>
     </row>
-    <row r="90" spans="1:28" ht="13.2">
+    <row r="90" spans="2:24" ht="13.2">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -8593,7 +8568,7 @@
       <c r="J90" s="1"/>
       <c r="X90" s="47"/>
     </row>
-    <row r="91" spans="1:28" ht="13.2">
+    <row r="91" spans="2:24" ht="13.2">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -8605,7 +8580,7 @@
       <c r="J91" s="1"/>
       <c r="X91" s="47"/>
     </row>
-    <row r="92" spans="1:28" ht="13.2">
+    <row r="92" spans="2:24" ht="13.2">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -8617,7 +8592,7 @@
       <c r="J92" s="1"/>
       <c r="X92" s="47"/>
     </row>
-    <row r="93" spans="1:28" ht="13.2">
+    <row r="93" spans="2:24" ht="13.2">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -8629,7 +8604,7 @@
       <c r="J93" s="1"/>
       <c r="X93" s="47"/>
     </row>
-    <row r="94" spans="1:28" ht="13.2">
+    <row r="94" spans="2:24" ht="13.2">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -8641,7 +8616,7 @@
       <c r="J94" s="1"/>
       <c r="X94" s="47"/>
     </row>
-    <row r="95" spans="1:28" ht="13.2">
+    <row r="95" spans="2:24" ht="13.2">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -8653,7 +8628,7 @@
       <c r="J95" s="1"/>
       <c r="X95" s="47"/>
     </row>
-    <row r="96" spans="1:28" ht="13.2">
+    <row r="96" spans="2:24" ht="13.2">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -19247,7 +19222,6 @@
       <c r="H978" s="1"/>
       <c r="I978" s="1"/>
       <c r="J978" s="1"/>
-      <c r="X978" s="47"/>
     </row>
     <row r="979" spans="2:24" ht="13.2">
       <c r="B979" s="1"/>
@@ -19358,17 +19332,6 @@
       <c r="H988" s="1"/>
       <c r="I988" s="1"/>
       <c r="J988" s="1"/>
-    </row>
-    <row r="989" spans="2:24" ht="13.2">
-      <c r="B989" s="1"/>
-      <c r="C989" s="1"/>
-      <c r="D989" s="1"/>
-      <c r="E989" s="1"/>
-      <c r="F989" s="1"/>
-      <c r="G989" s="1"/>
-      <c r="H989" s="1"/>
-      <c r="I989" s="1"/>
-      <c r="J989" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -19392,100 +19355,99 @@
     <hyperlink ref="H20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="H21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="I21" r:id="rId20" display="https://pubmed.ncbi.nlm.nih.gov/38607755/" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I24" r:id="rId24" display="https://pubmed.ncbi.nlm.nih.gov/38307424/" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="H25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I25" r:id="rId26" display="https://pubmed.ncbi.nlm.nih.gov/38249716/" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="H26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I26" r:id="rId28" display="https://pubmed.ncbi.nlm.nih.gov/38229812/" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="H27" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I27" r:id="rId30" display="https://pubmed.ncbi.nlm.nih.gov/37923043/" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="H28" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="H29" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="I29" r:id="rId33" display="https://pubmed.ncbi.nlm.nih.gov/37898526/" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="H30" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="I30" r:id="rId35" display="https://pubmed.ncbi.nlm.nih.gov/37759906/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="H31" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="I31" r:id="rId37" display="https://pubmed.ncbi.nlm.nih.gov/37659428/" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="H32" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="H33" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I33" r:id="rId40" display="https://pubmed.ncbi.nlm.nih.gov/37355284/" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="H34" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I34" r:id="rId42" display="https://pubmed.ncbi.nlm.nih.gov/37103352/" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="H35" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="I35" r:id="rId44" display="https://pubmed.ncbi.nlm.nih.gov/36986674/" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="H36" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="I36" r:id="rId46" display="https://pubmed.ncbi.nlm.nih.gov/37786516/" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="H37" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="I37" r:id="rId48" display="https://pubmed.ncbi.nlm.nih.gov/36919361/" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="H38" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="I38" r:id="rId50" display="https://pubmed.ncbi.nlm.nih.gov/36295107/" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="H39" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="H40" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="H41" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="I41" r:id="rId54" display="https://pubmed.ncbi.nlm.nih.gov/35669384/" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="H42" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="I42" r:id="rId56" display="https://pubmed.ncbi.nlm.nih.gov/35034059/" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="H43" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="I43" r:id="rId58" display="https://www.ncbi.nlm.nih.gov/pubmed/33923061" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="H44" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="I44" r:id="rId60" display="https://www.ncbi.nlm.nih.gov/pubmed/33676390" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="H45" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="I45" r:id="rId62" display="https://www.ncbi.nlm.nih.gov/pubmed/33358679" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="H46" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="I46" r:id="rId64" display="https://www.ncbi.nlm.nih.gov/pubmed/33141053" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="H47" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="I47" r:id="rId66" display="https://www.ncbi.nlm.nih.gov/pubmed/32727328" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="H48" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="I48" r:id="rId68" display="https://www.ncbi.nlm.nih.gov/pubmed/33040678" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="H49" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="I49" r:id="rId70" display="https://www.ncbi.nlm.nih.gov/pubmed/30474509" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="H50" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="H51" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="I51" r:id="rId73" display="https://www.ncbi.nlm.nih.gov/pubmed/32348223" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="H52" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="I52" r:id="rId75" display="https://www.ncbi.nlm.nih.gov/pubmed/31535615" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="H53" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="I53" r:id="rId77" display="https://www.ncbi.nlm.nih.gov/pubmed/31526729" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="H54" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="I54" r:id="rId79" display="https://www.ncbi.nlm.nih.gov/pubmed/31417028" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="H55" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="I55" r:id="rId81" display="https://www.ncbi.nlm.nih.gov/pubmed/30989503" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="H56" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="I56" r:id="rId83" display="https://www.ncbi.nlm.nih.gov/pubmed/28186655" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="H57" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="I57" r:id="rId85" display="https://www.ncbi.nlm.nih.gov/pubmed/28632905" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="H58" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="I58" r:id="rId87" display="http://www.ncbi.nlm.nih.gov/pubmed/27364681" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="H59" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="I59" r:id="rId89" display="http://www.ncbi.nlm.nih.gov/pubmed/26835453" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="H60" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="I60" r:id="rId91" display="http://www.ncbi.nlm.nih.gov/pubmed/26834554" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="I61" r:id="rId92" display="http://www.ncbi.nlm.nih.gov/pubmed/25027075" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="H62" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="I62" r:id="rId94" display="http://www.ncbi.nlm.nih.gov/pubmed/24709042" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="I63" r:id="rId95" display="http://www.ncbi.nlm.nih.gov/pubmed/23305026" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="H64" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="I64" r:id="rId97" display="http://www.ncbi.nlm.nih.gov/pubmed/22170471" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="I65" r:id="rId98" display="http://www.ncbi.nlm.nih.gov/pubmed/21245625" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="I66" r:id="rId99" display="http://www.ncbi.nlm.nih.gov/pubmed/20424313" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="H70" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="H71" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="H72" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="H73" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="H74" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="H75" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="H76" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="H77" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="H78" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="H79" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="H80" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="U6" r:id="rId111" xr:uid="{A1B94D74-C850-49BE-B109-AEB1147955BC}"/>
+    <hyperlink ref="H22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I23" r:id="rId23" display="https://pubmed.ncbi.nlm.nih.gov/38307424/" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="H24" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I24" r:id="rId25" display="https://pubmed.ncbi.nlm.nih.gov/38249716/" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="H25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I25" r:id="rId27" display="https://pubmed.ncbi.nlm.nih.gov/38229812/" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="H26" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I26" r:id="rId29" display="https://pubmed.ncbi.nlm.nih.gov/37923043/" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H27" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H28" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="I28" r:id="rId32" display="https://pubmed.ncbi.nlm.nih.gov/37898526/" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="H29" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="I29" r:id="rId34" display="https://pubmed.ncbi.nlm.nih.gov/37759906/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="H30" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="I30" r:id="rId36" display="https://pubmed.ncbi.nlm.nih.gov/37659428/" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="H31" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="H32" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I32" r:id="rId39" display="https://pubmed.ncbi.nlm.nih.gov/37355284/" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="H33" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I33" r:id="rId41" display="https://pubmed.ncbi.nlm.nih.gov/37103352/" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="H34" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I34" r:id="rId43" display="https://pubmed.ncbi.nlm.nih.gov/36986674/" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="H35" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I35" r:id="rId45" display="https://pubmed.ncbi.nlm.nih.gov/37786516/" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="H36" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="I36" r:id="rId47" display="https://pubmed.ncbi.nlm.nih.gov/36919361/" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="H37" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="I37" r:id="rId49" display="https://pubmed.ncbi.nlm.nih.gov/36295107/" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="H38" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H39" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="H40" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="I40" r:id="rId53" display="https://pubmed.ncbi.nlm.nih.gov/35669384/" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="H41" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="I41" r:id="rId55" display="https://pubmed.ncbi.nlm.nih.gov/35034059/" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="H42" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="I42" r:id="rId57" display="https://www.ncbi.nlm.nih.gov/pubmed/33923061" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="H43" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="I43" r:id="rId59" display="https://www.ncbi.nlm.nih.gov/pubmed/33676390" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="H44" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="I44" r:id="rId61" display="https://www.ncbi.nlm.nih.gov/pubmed/33358679" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="H45" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="I45" r:id="rId63" display="https://www.ncbi.nlm.nih.gov/pubmed/33141053" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="H46" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="I46" r:id="rId65" display="https://www.ncbi.nlm.nih.gov/pubmed/32727328" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="H47" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="I47" r:id="rId67" display="https://www.ncbi.nlm.nih.gov/pubmed/33040678" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="H48" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="I48" r:id="rId69" display="https://www.ncbi.nlm.nih.gov/pubmed/30474509" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="H49" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="H50" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="I50" r:id="rId72" display="https://www.ncbi.nlm.nih.gov/pubmed/32348223" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="H51" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="I51" r:id="rId74" display="https://www.ncbi.nlm.nih.gov/pubmed/31535615" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="H52" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="I52" r:id="rId76" display="https://www.ncbi.nlm.nih.gov/pubmed/31526729" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="H53" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="I53" r:id="rId78" display="https://www.ncbi.nlm.nih.gov/pubmed/31417028" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="H54" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="I54" r:id="rId80" display="https://www.ncbi.nlm.nih.gov/pubmed/30989503" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="H55" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="I55" r:id="rId82" display="https://www.ncbi.nlm.nih.gov/pubmed/28186655" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="H56" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="I56" r:id="rId84" display="https://www.ncbi.nlm.nih.gov/pubmed/28632905" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="H57" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="I57" r:id="rId86" display="http://www.ncbi.nlm.nih.gov/pubmed/27364681" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="H58" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="I58" r:id="rId88" display="http://www.ncbi.nlm.nih.gov/pubmed/26835453" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="H59" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="I59" r:id="rId90" display="http://www.ncbi.nlm.nih.gov/pubmed/26834554" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="I60" r:id="rId91" display="http://www.ncbi.nlm.nih.gov/pubmed/25027075" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="H61" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="I61" r:id="rId93" display="http://www.ncbi.nlm.nih.gov/pubmed/24709042" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="I62" r:id="rId94" display="http://www.ncbi.nlm.nih.gov/pubmed/23305026" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="H63" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="I63" r:id="rId96" display="http://www.ncbi.nlm.nih.gov/pubmed/22170471" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="I64" r:id="rId97" display="http://www.ncbi.nlm.nih.gov/pubmed/21245625" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="I65" r:id="rId98" display="http://www.ncbi.nlm.nih.gov/pubmed/20424313" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="H69" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="H70" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="H71" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="H72" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="H73" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="H74" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="H75" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="H76" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="H77" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="H78" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="H79" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="U6" r:id="rId110" xr:uid="{A1B94D74-C850-49BE-B109-AEB1147955BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId112"/>
+  <drawing r:id="rId111"/>
 </worksheet>
 </file>
 
@@ -19509,43 +19471,43 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>403</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -19591,13 +19553,13 @@
         <v>2025</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -19610,31 +19572,31 @@
         <v>2025</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="I7" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>24</v>
@@ -19645,34 +19607,34 @@
         <v>2025</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1">
@@ -19680,29 +19642,29 @@
         <v>2025</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>24</v>
@@ -19713,29 +19675,29 @@
         <v>2025</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>24</v>
@@ -19746,29 +19708,29 @@
         <v>2025</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>24</v>
@@ -19779,19 +19741,19 @@
         <v>2024</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -19802,27 +19764,27 @@
         <v>2024</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1">
@@ -19830,27 +19792,27 @@
         <v>2024</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1">
@@ -19858,27 +19820,27 @@
         <v>2024</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1">
@@ -19887,26 +19849,26 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15.75" customHeight="1">
@@ -19915,26 +19877,26 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="15.75" customHeight="1">
@@ -19943,26 +19905,26 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="15.75" customHeight="1">
@@ -19970,29 +19932,29 @@
         <v>2023</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="15.75" customHeight="1">
@@ -20001,26 +19963,26 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="15.75" customHeight="1">
@@ -20029,26 +19991,26 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15.75" customHeight="1">
@@ -20057,26 +20019,26 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="15.75" customHeight="1">
@@ -20085,26 +20047,26 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="15.75" customHeight="1">
@@ -20113,26 +20075,26 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="15.75" customHeight="1">
@@ -20141,26 +20103,26 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="15.75" customHeight="1">
@@ -20169,26 +20131,26 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="15.75" customHeight="1">
@@ -20197,26 +20159,26 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.75" customHeight="1">
@@ -20225,25 +20187,25 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="15.75" customHeight="1">
@@ -20252,26 +20214,26 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="15.75" customHeight="1">
@@ -20280,26 +20242,26 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="15.75" customHeight="1">
@@ -20308,26 +20270,26 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="15.75" customHeight="1">
@@ -20336,26 +20298,26 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="15.75" customHeight="1">
@@ -20364,26 +20326,26 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="15.75" customHeight="1">
@@ -20392,24 +20354,24 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="15.75" customHeight="1">
@@ -20418,26 +20380,26 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="15.75" customHeight="1">
@@ -20446,25 +20408,25 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="15.75" customHeight="1">
@@ -20473,25 +20435,25 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="15.75" customHeight="1">
@@ -20500,26 +20462,26 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="15.75" customHeight="1">
@@ -20527,23 +20489,23 @@
         <v>2022</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="15.75" customHeight="1">
@@ -20551,23 +20513,23 @@
         <v>2022</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="15.75" customHeight="1">
@@ -20575,23 +20537,23 @@
         <v>2022</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="15.75" customHeight="1">
@@ -20599,23 +20561,23 @@
         <v>2022</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="2:13" ht="15.75" customHeight="1">
@@ -20623,23 +20585,23 @@
         <v>2022</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="15.75" customHeight="1">
@@ -20647,23 +20609,23 @@
         <v>2022</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="2:13" ht="15.75" customHeight="1">
@@ -20671,23 +20633,23 @@
         <v>2022</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="2:13" ht="15.75" customHeight="1">
@@ -20695,23 +20657,23 @@
         <v>2022</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -20781,10 +20743,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="37" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -20816,7 +20778,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
@@ -20824,7 +20786,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
@@ -20832,7 +20794,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
@@ -20840,7 +20802,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
@@ -20848,7 +20810,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
@@ -20856,7 +20818,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
@@ -20864,7 +20826,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
@@ -20872,7 +20834,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
@@ -20880,7 +20842,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
@@ -20888,7 +20850,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
@@ -20896,7 +20858,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
@@ -20904,7 +20866,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
@@ -20912,7 +20874,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
@@ -20920,7 +20882,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
@@ -20928,7 +20890,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
@@ -20936,7 +20898,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
@@ -20944,7 +20906,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
@@ -20952,7 +20914,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
@@ -20960,7 +20922,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
@@ -20968,7 +20930,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
@@ -20976,7 +20938,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
@@ -20984,7 +20946,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
@@ -20992,7 +20954,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1">
@@ -21000,7 +20962,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
@@ -21008,7 +20970,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
@@ -21016,7 +20978,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
@@ -21024,7 +20986,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1">
@@ -21032,7 +20994,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
@@ -21040,7 +21002,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1">
@@ -21048,7 +21010,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
@@ -21056,7 +21018,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1">
@@ -21064,7 +21026,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1">
@@ -21072,7 +21034,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
@@ -21080,7 +21042,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1">
@@ -21088,7 +21050,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1">
@@ -21096,7 +21058,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
@@ -21104,7 +21066,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
@@ -21112,7 +21074,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1">
@@ -21120,7 +21082,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1">
@@ -21128,7 +21090,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1">
@@ -21136,7 +21098,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1">
@@ -21144,7 +21106,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1">
@@ -21152,7 +21114,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
@@ -21160,7 +21122,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
@@ -21168,7 +21130,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1">
@@ -21176,7 +21138,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1">
@@ -21184,7 +21146,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
@@ -21192,7 +21154,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
@@ -21200,7 +21162,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1">
@@ -21208,7 +21170,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1">
@@ -21216,7 +21178,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1">
@@ -21224,7 +21186,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1">
@@ -21232,7 +21194,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1">
@@ -21240,7 +21202,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1">
@@ -21248,7 +21210,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1">
@@ -21256,7 +21218,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1">
@@ -21269,7 +21231,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
@@ -21277,7 +21239,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1">
@@ -21285,7 +21247,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1">
@@ -21293,7 +21255,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1">
@@ -21301,7 +21263,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1">
@@ -21309,7 +21271,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
@@ -21317,7 +21279,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="13.2">
@@ -21333,7 +21295,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="13.2">
@@ -21341,7 +21303,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="13.2">
@@ -21349,7 +21311,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="13.2">
@@ -21357,7 +21319,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="13.2">
@@ -21365,7 +21327,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="13.2">
@@ -21373,7 +21335,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="13.2">
@@ -21381,7 +21343,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="13.2">
@@ -21389,7 +21351,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="13.2">
@@ -21397,7 +21359,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="13.2">
@@ -21405,7 +21367,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="13.2">
@@ -21413,7 +21375,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="13.2">
@@ -21421,7 +21383,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="13.2">
@@ -21429,7 +21391,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="13.2">
@@ -21437,7 +21399,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="13.2">
@@ -21445,7 +21407,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="13.2">
@@ -21453,7 +21415,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="13.2">
@@ -21461,7 +21423,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="13.2">
@@ -21469,7 +21431,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="13.2">
@@ -21477,7 +21439,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="13.2">
@@ -21485,7 +21447,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="13.2">
@@ -21493,7 +21455,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="13.2">
@@ -21501,7 +21463,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="13.2">
@@ -21509,7 +21471,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="13.2">
@@ -21517,7 +21479,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
